--- a/Graphs/ar5の11次から作成したキャリブレーションカーブ.xlsx
+++ b/Graphs/ar5の11次から作成したキャリブレーションカーブ.xlsx
@@ -9,7 +9,10 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$195</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -101,8 +104,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.7659616579668144E-2"/>
-          <c:y val="2.8717948717948725E-2"/>
+          <c:x val="4.5637791348238775E-2"/>
+          <c:y val="1.4703995333916593E-2"/>
           <c:w val="0.91996346496559633"/>
           <c:h val="0.86308136482939635"/>
         </c:manualLayout>
@@ -140,590 +143,251 @@
               <c:f>Sheet1!$A$1:$A$195</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="195"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>61</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>63</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>64</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>67</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>68</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>71</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>72</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>73</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>74</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>75</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>76</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>77</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>79</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="194">
                   <c:v>194</c:v>
                 </c:pt>
               </c:numCache>
@@ -734,497 +398,158 @@
               <c:f>Sheet1!$B$1:$B$195</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="195"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>66.499999999999886</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.834999999999894</c:v>
+                  <c:v>65.169999999999902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.169999999999902</c:v>
+                  <c:v>63.839999999999897</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.839999999999897</c:v>
+                  <c:v>62.509999999999899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.174999999999891</c:v>
+                  <c:v>61.1799999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.509999999999899</c:v>
+                  <c:v>59.849999999999888</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61.844999999999892</c:v>
+                  <c:v>58.519999999999889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.1799999999999</c:v>
+                  <c:v>57.189999999999891</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.84749999999989</c:v>
+                  <c:v>55.859999999999893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60.514999999999894</c:v>
+                  <c:v>54.529999999999895</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60.182499999999898</c:v>
+                  <c:v>53.199999999999896</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>59.849999999999888</c:v>
+                  <c:v>51.869999999999891</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>59.184999999999896</c:v>
+                  <c:v>50.539999999999893</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58.519999999999889</c:v>
+                  <c:v>49.209999999999894</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>57.189999999999891</c:v>
+                  <c:v>47.879999999999889</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>55.859999999999893</c:v>
+                  <c:v>46.549999999999891</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>55.416666666666593</c:v>
+                  <c:v>45.219999999999892</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>54.973333333333194</c:v>
+                  <c:v>43.889999999999894</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>54.529999999999895</c:v>
+                  <c:v>42.559999999999896</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>53.864999999999888</c:v>
+                  <c:v>41.229999999999897</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>53.199999999999896</c:v>
+                  <c:v>39.899999999999892</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51.869999999999891</c:v>
+                  <c:v>38.569999999999894</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>51.204999999999892</c:v>
+                  <c:v>37.239999999999888</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>50.539999999999893</c:v>
+                  <c:v>35.90999999999989</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>49.209999999999894</c:v>
+                  <c:v>34.579999999999892</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>48.544999999999895</c:v>
+                  <c:v>33.249999999999893</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>47.879999999999889</c:v>
+                  <c:v>31.919999999999895</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>47.214999999999897</c:v>
+                  <c:v>30.589999999999897</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>46.549999999999891</c:v>
+                  <c:v>29.259999999999891</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45.884999999999899</c:v>
+                  <c:v>27.929999999999893</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>45.219999999999892</c:v>
+                  <c:v>26.599999999999895</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44.776666666666593</c:v>
+                  <c:v>25.269999999999897</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44.333333333333194</c:v>
+                  <c:v>23.939999999999891</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43.889999999999894</c:v>
+                  <c:v>22.609999999999893</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43.446666666666594</c:v>
+                  <c:v>21.279999999999895</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43.003333333333195</c:v>
+                  <c:v>19.949999999999896</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42.559999999999896</c:v>
+                  <c:v>18.619999999999891</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41.894999999999889</c:v>
+                  <c:v>17.289999999999893</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41.229999999999897</c:v>
+                  <c:v>15.959999999999894</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.786666666666598</c:v>
+                  <c:v>14.629999999999896</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40.343333333333199</c:v>
+                  <c:v>13.299999999999891</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>39.899999999999892</c:v>
+                  <c:v>11.969999999999892</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>39.234999999999893</c:v>
+                  <c:v>10.639999999999894</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>38.569999999999894</c:v>
+                  <c:v>9.3099999999999952</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>38.126666666666594</c:v>
+                  <c:v>7.9799999999999969</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>37.683333333333195</c:v>
+                  <c:v>6.6499999999999915</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>37.239999999999888</c:v>
+                  <c:v>5.3199999999999932</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>36.574999999999896</c:v>
+                  <c:v>3.9899999999999949</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>35.90999999999989</c:v>
+                  <c:v>2.6599999999999966</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>35.577499999999894</c:v>
+                  <c:v>1.3299999999999912</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>35.244999999999898</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>34.912499999999895</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>34.579999999999892</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>33.914999999999893</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>33.249999999999893</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>32.806666666666594</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>32.363333333333294</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>31.919999999999895</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>31.254999999999896</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>30.589999999999897</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>30.14666666666659</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>29.703333333333291</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>29.259999999999891</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>28.816666666666592</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>28.373333333333292</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>27.929999999999893</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>27.59749999999989</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>27.264999999999894</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>26.932499999999891</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>26.599999999999895</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>25.934999999999896</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>25.269999999999897</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>24.937499999999893</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>24.60499999999989</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>24.272499999999894</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>23.939999999999891</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>23.496666666666592</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>23.053333333333292</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>22.609999999999893</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>22.166666666666593</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>21.723333333333294</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>21.279999999999895</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>20.836666666666595</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>20.393333333333295</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>19.949999999999896</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>19.683999999999891</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>19.417999999999893</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>19.151999999999894</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>18.885999999999896</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>18.619999999999891</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>18.176666666666591</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>17.733333333333292</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>17.289999999999893</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>15.959999999999894</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>15.627499999999891</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>15.294999999999895</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>14.962499999999892</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>14.629999999999896</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>14.186666666666596</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>13.743333333333297</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>13.299999999999891</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>13.033999999999892</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>12.767999999999894</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>12.501999999999896</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>12.235999999999891</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>11.969999999999892</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>11.703999999999894</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>11.437999999999896</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>11.17199999999989</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>10.905999999999892</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>10.639999999999894</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>10.307499999999891</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>9.9749999999999943</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>9.6424999999998917</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>9.3099999999999952</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>9.0883333333332956</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>8.8666666666665961</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>8.644999999999996</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>8.4233333333332965</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>8.2016666666665969</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>7.9799999999999969</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>7.7139999999999915</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>7.4479999999998938</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>7.1819999999999951</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>6.9159999999999968</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>6.6499999999999915</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>6.3839999999999932</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>6.117999999999995</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>5.8519999999999968</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>5.5859999999999914</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>5.3199999999999932</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>5.1299999999999955</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>4.9399999999999906</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>4.7499999999999929</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>4.5599999999999952</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>4.3699999999999903</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>4.1799999999999926</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>3.9899999999999949</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>3.7683333333332953</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>3.5466666666665958</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>3.3249999999999957</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>3.1033333333332962</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>2.8816666666665967</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>2.6599999999999966</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>2.5390909090908949</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>2.4181818181818002</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>2.2972727272726914</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>2.1763636363635968</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>2.0554545454544879</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>1.9345454545453933</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>1.8136363636362987</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>1.6927272727271898</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>1.5718181818180952</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>1.4509090909089863</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>1.3299999999999912</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>1.1822222222221868</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>1.0344444444443965</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.88666666666659211</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.73888888888878768</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0.59111111111109693</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0.4433333333332925</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0.29555555555548807</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.14777777777769785</c:v>
-                </c:pt>
-                <c:pt idx="163">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1240,11 +565,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="599689320"/>
-        <c:axId val="599683832"/>
+        <c:axId val="467827656"/>
+        <c:axId val="467826480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="599689320"/>
+        <c:axId val="467827656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -1354,13 +679,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599683832"/>
+        <c:crossAx val="467826480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="599683832"/>
+        <c:axId val="467826480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1477,7 +802,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599689320"/>
+        <c:crossAx val="467827656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2086,16 +1411,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676273</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2404,1482 +1729,2271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B195"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
         <v>66.499999999999886</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1">
+        <f>MOD(B1,1.33)</f>
+        <v>1.3299999999998828</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>65.834999999999894</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2">
+        <f t="shared" ref="C2:C65" si="0">MOD(B2,1.33)</f>
+        <v>0.66499999999989079</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>65.169999999999902</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>1.3299999999998988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>63.839999999999897</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1.3299999999998935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>63.174999999999891</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.66499999999988724</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>62.509999999999899</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.3299999999998953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>61.844999999999892</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.66499999999988901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>61.1799999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.329999999999897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>60.84749999999989</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.99749999999988681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>60.514999999999894</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.66499999999989079</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>60.182499999999898</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.33249999999989477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>59.849999999999888</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1.3299999999998846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>59.184999999999896</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.66499999999989257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>58.519999999999889</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1.3299999999998864</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>57.189999999999891</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1.3299999999998882</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>55.859999999999893</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1.3299999999998899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>55.416666666666593</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.88666666666659033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>54.973333333333194</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0.44333333333319125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>54.529999999999895</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1.3299999999998917</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>53.864999999999888</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0.66499999999988546</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>53.199999999999896</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1.3299999999998935</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>51.869999999999891</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1.3299999999998882</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>51.204999999999892</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0.66499999999988901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>50.539999999999893</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1.3299999999998899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>49.209999999999894</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>1.3299999999998917</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>48.544999999999895</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0.66499999999989257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>47.879999999999889</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>1.3299999999998864</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>47.214999999999897</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0.66499999999989434</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>46.549999999999891</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>1.3299999999998882</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>45.884999999999899</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0.66499999999989612</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>45.219999999999892</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>1.3299999999998899</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>44.776666666666593</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>0.88666666666659033</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>44.333333333333194</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>0.44333333333319125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>43.889999999999894</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>1.3299999999998917</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>43.446666666666594</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0.88666666666659211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <v>43.003333333333195</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>0.44333333333319302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <v>42.559999999999896</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>1.3299999999998935</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <v>41.894999999999889</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>0.66499999999988724</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>41.229999999999897</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>1.3299999999998953</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <v>40.786666666666598</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>0.88666666666659566</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <v>40.343333333333199</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>0.44333333333319658</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <v>39.899999999999892</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>1.3299999999998899</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <v>39.234999999999893</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>0.66499999999989079</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <v>38.569999999999894</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>1.3299999999998917</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>38.126666666666594</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>0.88666666666659211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <v>37.683333333333195</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>0.44333333333319302</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <v>37.239999999999888</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>1.3299999999998864</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <v>36.574999999999896</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>0.66499999999989434</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>35.90999999999989</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>1.3299999999998882</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <v>35.577499999999894</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>0.99749999999989214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>35.244999999999898</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>0.66499999999989612</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
         <v>34.912499999999895</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>0.33249999999989299</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
         <v>34.579999999999892</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>1.3299999999998899</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
         <v>33.914999999999893</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>0.66499999999989079</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
         <v>33.249999999999893</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>1.3299999999998917</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
         <v>32.806666666666594</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>0.88666666666659211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
         <v>32.363333333333294</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>0.4433333333332925</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
         <v>31.919999999999895</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>1.3299999999998935</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
         <v>31.254999999999896</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>0.66499999999989434</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
         <v>30.589999999999897</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>1.3299999999998953</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
         <v>30.14666666666659</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>0.88666666666658855</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
         <v>29.703333333333291</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>0.44333333333328895</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
         <v>29.259999999999891</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>1.3299999999998899</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
         <v>28.816666666666592</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>0.88666666666659033</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
         <v>28.373333333333292</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>0.44333333333329072</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
         <v>27.929999999999893</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C66">
+        <f t="shared" ref="C66:C129" si="1">MOD(B66,1.33)</f>
+        <v>1.3299999999998917</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
         <v>27.59749999999989</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C67">
+        <f t="shared" si="1"/>
+        <v>0.99749999999988859</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
         <v>27.264999999999894</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>0.66499999999989257</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
         <v>26.932499999999891</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>0.33249999999988944</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
         <v>26.599999999999895</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998935</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
         <v>25.934999999999896</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>0.66499999999989434</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
         <v>25.269999999999897</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998953</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
         <v>24.937499999999893</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>0.99749999999989214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
         <v>24.60499999999989</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>0.66499999999988901</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
         <v>24.272499999999894</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>0.33249999999989299</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
         <v>23.939999999999891</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998899</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
         <v>23.496666666666592</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>0.88666666666659033</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
         <v>23.053333333333292</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>0.44333333333329072</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
         <v>22.609999999999893</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998917</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
         <v>22.166666666666593</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>0.88666666666659211</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
         <v>21.723333333333294</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>0.4433333333332925</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
         <v>21.279999999999895</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998935</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
         <v>20.836666666666595</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>0.88666666666659388</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
         <v>20.393333333333295</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>0.44333333333329428</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
         <v>19.949999999999896</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998953</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
         <v>19.683999999999891</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>1.0639999999998899</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
         <v>19.417999999999893</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>0.79799999999989168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
         <v>19.151999999999894</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>0.53199999999989345</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
         <v>18.885999999999896</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>0.26599999999989521</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
         <v>18.619999999999891</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998899</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
         <v>18.176666666666591</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>0.88666666666659033</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
         <v>17.733333333333292</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>0.44333333333329072</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
         <v>17.289999999999893</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998917</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
         <v>15.959999999999894</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998935</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
         <v>15.627499999999891</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>0.99749999999989036</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
         <v>15.294999999999895</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>0.66499999999989434</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
         <v>14.962499999999892</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>0.33249999999989122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
         <v>14.629999999999896</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998953</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
         <v>14.186666666666596</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>0.88666666666659566</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
         <v>13.743333333333297</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>0.44333333333329605</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
         <v>13.299999999999891</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C101">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998899</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102">
         <v>13.033999999999892</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C102">
+        <f t="shared" si="1"/>
+        <v>1.0639999999998917</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103">
         <v>12.767999999999894</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C103">
+        <f t="shared" si="1"/>
+        <v>0.79799999999989346</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104">
         <v>12.501999999999896</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C104">
+        <f t="shared" si="1"/>
+        <v>0.53199999999989522</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105">
         <v>12.235999999999891</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C105">
+        <f t="shared" si="1"/>
+        <v>0.26599999999988988</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106">
         <v>11.969999999999892</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C106">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998917</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107">
         <v>11.703999999999894</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C107">
+        <f t="shared" si="1"/>
+        <v>1.0639999999998935</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108">
         <v>11.437999999999896</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C108">
+        <f t="shared" si="1"/>
+        <v>0.79799999999989524</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109">
         <v>11.17199999999989</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C109">
+        <f t="shared" si="1"/>
+        <v>0.53199999999988989</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110">
         <v>10.905999999999892</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C110">
+        <f t="shared" si="1"/>
+        <v>0.26599999999989166</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111">
         <v>10.639999999999894</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C111">
+        <f t="shared" si="1"/>
+        <v>1.3299999999998935</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112">
         <v>10.307499999999891</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C112">
+        <f t="shared" si="1"/>
+        <v>0.99749999999989036</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113">
         <v>9.9749999999999943</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C113">
+        <f t="shared" si="1"/>
+        <v>0.66499999999999382</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114">
         <v>9.6424999999998917</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C114">
+        <f t="shared" si="1"/>
+        <v>0.33249999999989122</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115">
         <v>9.3099999999999952</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C115">
+        <f t="shared" si="1"/>
+        <v>1.3299999999999947</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116">
         <v>9.0883333333332956</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C116">
+        <f t="shared" si="1"/>
+        <v>1.1083333333332952</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117">
         <v>8.8666666666665961</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C117">
+        <f t="shared" si="1"/>
+        <v>0.88666666666659566</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118">
         <v>8.644999999999996</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C118">
+        <f t="shared" si="1"/>
+        <v>0.66499999999999559</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119">
         <v>8.4233333333332965</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C119">
+        <f t="shared" si="1"/>
+        <v>0.44333333333329605</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120">
         <v>8.2016666666665969</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C120">
+        <f t="shared" si="1"/>
+        <v>0.22166666666659651</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121">
         <v>7.9799999999999969</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C121">
+        <f t="shared" si="1"/>
+        <v>1.3299999999999965</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122">
         <v>7.7139999999999915</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C122">
+        <f t="shared" si="1"/>
+        <v>1.0639999999999912</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123">
         <v>7.4479999999998938</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C123">
+        <f t="shared" si="1"/>
+        <v>0.79799999999989346</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124">
         <v>7.1819999999999951</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C124">
+        <f t="shared" si="1"/>
+        <v>0.5319999999999947</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125">
         <v>6.9159999999999968</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C125">
+        <f t="shared" si="1"/>
+        <v>0.26599999999999646</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126">
         <v>6.6499999999999915</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C126">
+        <f t="shared" si="1"/>
+        <v>1.3299999999999912</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127">
         <v>6.3839999999999932</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C127">
+        <f t="shared" si="1"/>
+        <v>1.063999999999993</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128">
         <v>6.117999999999995</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C128">
+        <f t="shared" si="1"/>
+        <v>0.79799999999999471</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129">
         <v>5.8519999999999968</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C129">
+        <f t="shared" si="1"/>
+        <v>0.53199999999999648</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130">
         <v>5.5859999999999914</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C130">
+        <f t="shared" ref="C130:C193" si="2">MOD(B130,1.33)</f>
+        <v>0.26599999999999113</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131">
         <v>5.3199999999999932</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C131">
+        <f t="shared" si="2"/>
+        <v>1.329999999999993</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132">
         <v>5.1299999999999955</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C132">
+        <f t="shared" si="2"/>
+        <v>1.1399999999999952</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133">
         <v>4.9399999999999906</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C133">
+        <f t="shared" si="2"/>
+        <v>0.94999999999999041</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134">
         <v>4.7499999999999929</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C134">
+        <f t="shared" si="2"/>
+        <v>0.75999999999999268</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135">
         <v>4.5599999999999952</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C135">
+        <f t="shared" si="2"/>
+        <v>0.56999999999999496</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136">
         <v>4.3699999999999903</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C136">
+        <f t="shared" si="2"/>
+        <v>0.37999999999999012</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137">
         <v>4.1799999999999926</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C137">
+        <f t="shared" si="2"/>
+        <v>0.1899999999999924</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138">
         <v>3.9899999999999949</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C138">
+        <f t="shared" si="2"/>
+        <v>1.3299999999999947</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139">
         <v>3.7683333333332953</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C139">
+        <f t="shared" si="2"/>
+        <v>1.1083333333332952</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140">
         <v>3.5466666666665958</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C140">
+        <f t="shared" si="2"/>
+        <v>0.88666666666659566</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141">
         <v>3.3249999999999957</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C141">
+        <f t="shared" si="2"/>
+        <v>0.66499999999999559</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142">
         <v>3.1033333333332962</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C142">
+        <f t="shared" si="2"/>
+        <v>0.44333333333329605</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143">
         <v>2.8816666666665967</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C143">
+        <f t="shared" si="2"/>
+        <v>0.22166666666659651</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144">
         <v>2.6599999999999966</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C144">
+        <f t="shared" si="2"/>
+        <v>1.3299999999999965</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145">
         <v>2.5390909090908949</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C145">
+        <f t="shared" si="2"/>
+        <v>1.2090909090908948</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146">
         <v>2.4181818181818002</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C146">
+        <f t="shared" si="2"/>
+        <v>1.0881818181818002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147">
         <v>2.2972727272726914</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C147">
+        <f t="shared" si="2"/>
+        <v>0.96727272727269131</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148">
         <v>2.1763636363635968</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C148">
+        <f t="shared" si="2"/>
+        <v>0.84636363636359668</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149">
         <v>2.0554545454544879</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C149">
+        <f t="shared" si="2"/>
+        <v>0.72545454545448784</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150">
         <v>1.9345454545453933</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C150">
+        <f t="shared" si="2"/>
+        <v>0.60454545454539321</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151">
         <v>1.8136363636362987</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C151">
+        <f t="shared" si="2"/>
+        <v>0.48363636363629858</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152">
         <v>1.6927272727271898</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C152">
+        <f t="shared" si="2"/>
+        <v>0.36272727272718974</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153">
         <v>1.5718181818180952</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C153">
+        <f t="shared" si="2"/>
+        <v>0.24181818181809511</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154">
         <v>1.4509090909089863</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C154">
+        <f t="shared" si="2"/>
+        <v>0.12090909090898627</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155">
         <v>1.3299999999999912</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C155">
+        <f t="shared" si="2"/>
+        <v>1.3299999999999912</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156">
         <v>1.1822222222221868</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C156">
+        <f t="shared" si="2"/>
+        <v>1.1822222222221868</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157">
         <v>1.0344444444443965</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C157">
+        <f t="shared" si="2"/>
+        <v>1.0344444444443965</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158">
         <v>0.88666666666659211</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C158">
+        <f t="shared" si="2"/>
+        <v>0.88666666666659211</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159">
         <v>0.73888888888878768</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C159">
+        <f t="shared" si="2"/>
+        <v>0.73888888888878768</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160">
         <v>0.59111111111109693</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C160">
+        <f t="shared" si="2"/>
+        <v>0.59111111111109693</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161">
         <v>0.4433333333332925</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C161">
+        <f t="shared" si="2"/>
+        <v>0.4433333333332925</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162">
         <v>0.29555555555548807</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C162">
+        <f t="shared" si="2"/>
+        <v>0.29555555555548807</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163">
         <v>0.14777777777769785</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C163">
+        <f t="shared" si="2"/>
+        <v>0.14777777777769785</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C164">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C165">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C166">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C167">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C168">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C169">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C170">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C171">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C172">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C173">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C174">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C175">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C176">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C177">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C178">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C179">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C180">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C181">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C182">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C183">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C184">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C185">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C186">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C187">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C188">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C189">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C190">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C191">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C192">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C193">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C194">
+        <f t="shared" ref="C194:C195" si="3">MOD(B194,1.33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>194</v>
       </c>
+      <c r="C195">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C195">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="0"/>
+        <filter val="1.33"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Graphs/ar5の11次から作成したキャリブレーションカーブ.xlsx
+++ b/Graphs/ar5の11次から作成したキャリブレーションカーブ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,251 +143,590 @@
               <c:f>Sheet1!$A$1:$A$195</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="195"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="21">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="24">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>89</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>92</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="93">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>97</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
                   <c:v>105</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
                   <c:v>114</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
                   <c:v>143</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="154">
                   <c:v>154</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="155">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
                   <c:v>163</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="164">
                   <c:v>164</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="165">
                   <c:v>165</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="166">
                   <c:v>166</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="167">
                   <c:v>167</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="168">
                   <c:v>168</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="169">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="170">
                   <c:v>170</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="171">
                   <c:v>171</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="172">
                   <c:v>172</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="173">
                   <c:v>173</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="174">
                   <c:v>174</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="175">
                   <c:v>175</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="176">
                   <c:v>176</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="177">
                   <c:v>177</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="178">
                   <c:v>178</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="179">
                   <c:v>179</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="180">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="181">
                   <c:v>181</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="182">
                   <c:v>182</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="183">
                   <c:v>183</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="184">
                   <c:v>184</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="185">
                   <c:v>185</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="186">
                   <c:v>186</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="187">
                   <c:v>187</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="188">
                   <c:v>188</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="189">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="190">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="191">
                   <c:v>191</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="192">
                   <c:v>192</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="193">
                   <c:v>193</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="194">
                   <c:v>194</c:v>
                 </c:pt>
               </c:numCache>
@@ -398,158 +737,497 @@
               <c:f>Sheet1!$B$1:$B$195</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="195"/>
                 <c:pt idx="0">
-                  <c:v>66.499999999999886</c:v>
+                  <c:v>65.169999999999888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.169999999999902</c:v>
+                  <c:v>64.504999999999896</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.839999999999897</c:v>
+                  <c:v>63.839999999999904</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>62.509999999999899</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>61.844999999999892</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>61.1799999999999</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>59.849999999999888</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>60.514999999999894</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.849999999999902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59.517499999999892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.184999999999896</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.8524999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>58.519999999999889</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
+                  <c:v>57.854999999999897</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>57.189999999999891</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
                   <c:v>55.859999999999893</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15">
                   <c:v>54.529999999999895</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="16">
+                  <c:v>54.086666666666595</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53.643333333333196</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>53.199999999999896</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>51.869999999999891</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
+                  <c:v>52.53499999999989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51.869999999999898</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>50.539999999999893</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
+                  <c:v>49.874999999999893</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>49.209999999999894</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>47.879999999999889</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="24">
+                  <c:v>47.879999999999896</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47.214999999999897</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>46.549999999999891</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="27">
+                  <c:v>45.884999999999899</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>45.219999999999892</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="29">
+                  <c:v>44.5549999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>43.889999999999894</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="31">
+                  <c:v>43.446666666666594</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43.003333333333195</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>42.559999999999896</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="34">
+                  <c:v>42.116666666666596</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41.673333333333197</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>41.229999999999897</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>39.899999999999892</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="37">
+                  <c:v>40.564999999999891</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.899999999999899</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39.456666666666599</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>39.0133333333332</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>38.569999999999894</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>37.239999999999888</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="42">
+                  <c:v>37.904999999999895</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>37.239999999999895</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>36.796666666666596</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>36.353333333333197</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>35.90999999999989</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="47">
+                  <c:v>35.244999999999898</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>34.579999999999892</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="49">
+                  <c:v>34.247499999999896</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33.9149999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>33.582499999999897</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>33.249999999999893</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="53">
+                  <c:v>32.584999999999894</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>31.919999999999895</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="55">
+                  <c:v>31.476666666666596</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>31.033333333333296</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>30.589999999999897</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>29.259999999999891</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="58">
+                  <c:v>29.924999999999898</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29.259999999999899</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>28.816666666666592</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>28.373333333333292</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>27.929999999999893</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="63">
+                  <c:v>27.486666666666594</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>27.043333333333294</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>26.599999999999895</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="66">
+                  <c:v>26.267499999999892</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>25.934999999999896</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>25.602499999999893</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>25.269999999999897</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>23.939999999999891</c:v>
-                </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="70">
+                  <c:v>24.604999999999897</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>23.939999999999898</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>23.607499999999895</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>23.274999999999892</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>22.942499999999896</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>22.609999999999893</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="76">
+                  <c:v>22.166666666666593</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>21.723333333333294</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>21.279999999999895</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="79">
+                  <c:v>20.836666666666595</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20.393333333333295</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>19.949999999999896</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>18.619999999999891</c:v>
-                </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="82">
+                  <c:v>19.506666666666597</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>19.063333333333297</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>18.619999999999898</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>18.353999999999893</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>18.087999999999894</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>17.821999999999896</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>17.555999999999898</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>17.289999999999893</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="90">
+                  <c:v>16.957499999999893</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>16.624999999999893</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>16.292499999999894</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>15.959999999999894</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="94">
+                  <c:v>15.627499999999891</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>15.294999999999895</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>14.962499999999892</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>14.629999999999896</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="98">
+                  <c:v>14.186666666666596</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>13.743333333333297</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>13.299999999999891</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="101">
+                  <c:v>13.033999999999892</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>12.767999999999894</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>12.501999999999896</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>12.235999999999891</c:v>
+                </c:pt>
+                <c:pt idx="105">
                   <c:v>11.969999999999892</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="106">
+                  <c:v>11.703999999999894</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>11.437999999999896</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>11.17199999999989</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.905999999999892</c:v>
+                </c:pt>
+                <c:pt idx="110">
                   <c:v>10.639999999999894</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="111">
+                  <c:v>10.307499999999891</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9.9749999999999943</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9.6424999999998917</c:v>
+                </c:pt>
+                <c:pt idx="114">
                   <c:v>9.3099999999999952</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="115">
+                  <c:v>9.0883333333332956</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>8.8666666666665961</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>8.644999999999996</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>8.4233333333332965</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>8.2016666666665969</c:v>
+                </c:pt>
+                <c:pt idx="120">
                   <c:v>7.9799999999999969</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="121">
+                  <c:v>7.7139999999999915</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7.4479999999998938</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>7.1819999999999951</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6.9159999999999968</c:v>
+                </c:pt>
+                <c:pt idx="125">
                   <c:v>6.6499999999999915</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="126">
+                  <c:v>6.3839999999999932</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6.117999999999995</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>5.8519999999999968</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>5.5859999999999914</c:v>
+                </c:pt>
+                <c:pt idx="130">
                   <c:v>5.3199999999999932</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="131">
+                  <c:v>5.1299999999999955</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>4.9399999999999906</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>4.7499999999999929</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4.5599999999999952</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4.3699999999999903</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4.1799999999999926</c:v>
+                </c:pt>
+                <c:pt idx="137">
                   <c:v>3.9899999999999949</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="138">
+                  <c:v>3.7683333333332953</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.5466666666665958</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3.3249999999999957</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.1033333333332962</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.8816666666665967</c:v>
+                </c:pt>
+                <c:pt idx="143">
                   <c:v>2.6599999999999966</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="144">
+                  <c:v>2.5390909090908949</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.4181818181818002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.2972727272726914</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.1763636363635968</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.0554545454544879</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.9345454545453933</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.8136363636362987</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.6927272727271898</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.5718181818180952</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.4509090909089863</c:v>
+                </c:pt>
+                <c:pt idx="154">
                   <c:v>1.3299999999999912</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="155">
+                  <c:v>1.1822222222221868</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.0344444444443965</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.88666666666659211</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.73888888888878768</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.59111111111109693</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.4433333333332925</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.29555555555548807</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.14777777777769785</c:v>
+                </c:pt>
+                <c:pt idx="163">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -565,11 +1243,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="467827656"/>
-        <c:axId val="467826480"/>
+        <c:axId val="1303233048"/>
+        <c:axId val="1303235008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="467827656"/>
+        <c:axId val="1303233048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -679,13 +1357,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467826480"/>
+        <c:crossAx val="1303235008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="467826480"/>
+        <c:axId val="1303235008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,7 +1480,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467827656"/>
+        <c:crossAx val="1303233048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1411,16 +2089,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>676273</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180973</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1729,11 +2407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B164" sqref="B34:B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1743,23 +2420,23 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>66.499999999999886</v>
+        <v>65.169999999999888</v>
       </c>
       <c r="C1">
         <f>MOD(B1,1.33)</f>
-        <v>1.3299999999998828</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.3299999999998846</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>65.834999999999894</v>
+        <v>64.504999999999896</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C65" si="0">MOD(B2,1.33)</f>
-        <v>0.66499999999989079</v>
+        <v>0.66499999999989257</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1767,11 +2444,11 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>65.169999999999902</v>
+        <v>63.839999999999904</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>1.3299999999998988</v>
+        <v>1.3299999999999006</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -1779,23 +2456,23 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>63.839999999999897</v>
+        <v>62.509999999999899</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>1.3299999999998935</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.3299999999998953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>63.174999999999891</v>
+        <v>61.844999999999892</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0.66499999999988724</v>
+        <v>0.66499999999988901</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -1803,23 +2480,23 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>62.509999999999899</v>
+        <v>61.1799999999999</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>1.3299999999998953</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.329999999999897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>61.844999999999892</v>
+        <v>60.514999999999894</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0.66499999999988901</v>
+        <v>0.66499999999989079</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -1827,47 +2504,47 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>61.1799999999999</v>
+        <v>59.849999999999902</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>1.329999999999897</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.3299999999998988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>60.84749999999989</v>
+        <v>59.517499999999892</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0.99749999999988681</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>0.99749999999988859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>60.514999999999894</v>
+        <v>59.184999999999896</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0.66499999999989079</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>0.66499999999989257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>60.182499999999898</v>
+        <v>58.8524999999999</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>0.33249999999989477</v>
+        <v>0.33249999999989654</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -1875,23 +2552,23 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>59.849999999999888</v>
+        <v>58.519999999999889</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>1.3299999999998846</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.3299999999998864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>59.184999999999896</v>
+        <v>57.854999999999897</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>0.66499999999989257</v>
+        <v>0.66499999999989434</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -1899,11 +2576,11 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>58.519999999999889</v>
+        <v>57.189999999999891</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>1.3299999999998864</v>
+        <v>1.3299999999998882</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -1911,11 +2588,11 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>57.189999999999891</v>
+        <v>55.859999999999893</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>1.3299999999998882</v>
+        <v>1.3299999999998899</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -1923,35 +2600,35 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>55.859999999999893</v>
+        <v>54.529999999999895</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>1.3299999999998899</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.3299999999998917</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>55.416666666666593</v>
+        <v>54.086666666666595</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0.88666666666659033</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>0.88666666666659211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>54.973333333333194</v>
+        <v>53.643333333333196</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>0.44333333333319125</v>
+        <v>0.44333333333319302</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -1959,23 +2636,23 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>54.529999999999895</v>
+        <v>53.199999999999896</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>1.3299999999998917</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.3299999999998935</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>53.864999999999888</v>
+        <v>52.53499999999989</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>0.66499999999988546</v>
+        <v>0.66499999999988724</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -1983,11 +2660,11 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>53.199999999999896</v>
+        <v>51.869999999999898</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>1.3299999999998935</v>
+        <v>1.3299999999998953</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -1995,23 +2672,23 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>51.869999999999891</v>
+        <v>50.539999999999893</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>1.3299999999998882</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.3299999999998899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>51.204999999999892</v>
+        <v>49.874999999999893</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>0.66499999999988901</v>
+        <v>0.66499999999989079</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -2019,11 +2696,11 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>50.539999999999893</v>
+        <v>49.209999999999894</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -2031,23 +2708,23 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>49.209999999999894</v>
+        <v>47.879999999999896</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>1.3299999999998917</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.3299999999998935</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>48.544999999999895</v>
+        <v>47.214999999999897</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>0.66499999999989257</v>
+        <v>0.66499999999989434</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -2055,23 +2732,23 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>47.879999999999889</v>
+        <v>46.549999999999891</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>1.3299999999998864</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.3299999999998882</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>47.214999999999897</v>
+        <v>45.884999999999899</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>0.66499999999989434</v>
+        <v>0.66499999999989612</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -2079,23 +2756,23 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>46.549999999999891</v>
+        <v>45.219999999999892</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>1.3299999999998882</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.3299999999998899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>45.884999999999899</v>
+        <v>44.5549999999999</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>0.66499999999989612</v>
+        <v>0.6649999999998979</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -2103,35 +2780,35 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>45.219999999999892</v>
+        <v>43.889999999999894</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>1.3299999999998899</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.3299999999998917</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>44.776666666666593</v>
+        <v>43.446666666666594</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>0.88666666666659033</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>0.88666666666659211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>44.333333333333194</v>
+        <v>43.003333333333195</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>0.44333333333319125</v>
+        <v>0.44333333333319302</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -2139,35 +2816,35 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>43.889999999999894</v>
+        <v>42.559999999999896</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>1.3299999999998917</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.3299999999998935</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>43.446666666666594</v>
+        <v>42.116666666666596</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>0.88666666666659211</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>0.88666666666659388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>43.003333333333195</v>
+        <v>41.673333333333197</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>0.44333333333319302</v>
+        <v>0.4433333333331948</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -2175,23 +2852,23 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>42.559999999999896</v>
+        <v>41.229999999999897</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>1.3299999999998935</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.3299999999998953</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>41.894999999999889</v>
+        <v>40.564999999999891</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>0.66499999999988724</v>
+        <v>0.66499999999988901</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -2199,35 +2876,35 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>41.229999999999897</v>
+        <v>39.899999999999899</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>1.3299999999998953</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.329999999999897</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>40.786666666666598</v>
+        <v>39.456666666666599</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>0.88666666666659566</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>0.88666666666659744</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>40.343333333333199</v>
+        <v>39.0133333333332</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>0.44333333333319658</v>
+        <v>0.44333333333319835</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -2235,23 +2912,23 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>39.899999999999892</v>
+        <v>38.569999999999894</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>1.3299999999998899</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.3299999999998917</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>39.234999999999893</v>
+        <v>37.904999999999895</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>0.66499999999989079</v>
+        <v>0.66499999999989257</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -2259,35 +2936,35 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>38.569999999999894</v>
+        <v>37.239999999999895</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>1.3299999999998917</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.3299999999998935</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>38.126666666666594</v>
+        <v>36.796666666666596</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>0.88666666666659211</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>0.88666666666659388</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>37.683333333333195</v>
+        <v>36.353333333333197</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>0.44333333333319302</v>
+        <v>0.4433333333331948</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -2295,23 +2972,23 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>37.239999999999888</v>
+        <v>35.90999999999989</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>1.3299999999998864</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.3299999999998882</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>36.574999999999896</v>
+        <v>35.244999999999898</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>0.66499999999989434</v>
+        <v>0.66499999999989612</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -2319,47 +2996,47 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>35.90999999999989</v>
+        <v>34.579999999999892</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>1.3299999999998882</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.3299999999998899</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>35.577499999999894</v>
+        <v>34.247499999999896</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>0.99749999999989214</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>0.99749999999989392</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>35.244999999999898</v>
+        <v>33.9149999999999</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>0.66499999999989612</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>0.6649999999998979</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>34.912499999999895</v>
+        <v>33.582499999999897</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>0.33249999999989299</v>
+        <v>0.33249999999989477</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -2367,23 +3044,23 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>34.579999999999892</v>
+        <v>33.249999999999893</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>1.3299999999998899</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.3299999999998917</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>33.914999999999893</v>
+        <v>32.584999999999894</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>0.66499999999989079</v>
+        <v>0.66499999999989257</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -2391,35 +3068,35 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>33.249999999999893</v>
+        <v>31.919999999999895</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>1.3299999999998917</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.3299999999998935</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>32.806666666666594</v>
+        <v>31.476666666666596</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>0.88666666666659211</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>0.88666666666659388</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>32.363333333333294</v>
+        <v>31.033333333333296</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>0.4433333333332925</v>
+        <v>0.44333333333329428</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -2427,23 +3104,23 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>31.919999999999895</v>
+        <v>30.589999999999897</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>1.3299999999998935</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.3299999999998953</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>31.254999999999896</v>
+        <v>29.924999999999898</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>0.66499999999989434</v>
+        <v>0.66499999999989612</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -2451,35 +3128,35 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>30.589999999999897</v>
+        <v>29.259999999999899</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>1.3299999999998953</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.329999999999897</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>30.14666666666659</v>
+        <v>28.816666666666592</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>0.88666666666658855</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>0.88666666666659033</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>29.703333333333291</v>
+        <v>28.373333333333292</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>0.44333333333328895</v>
+        <v>0.44333333333329072</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -2487,35 +3164,35 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>29.259999999999891</v>
+        <v>27.929999999999893</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>1.3299999999998899</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.3299999999998917</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>28.816666666666592</v>
+        <v>27.486666666666594</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>0.88666666666659033</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>0.88666666666659211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>28.373333333333292</v>
+        <v>27.043333333333294</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>0.44333333333329072</v>
+        <v>0.4433333333332925</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -2523,47 +3200,47 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>27.929999999999893</v>
+        <v>26.599999999999895</v>
       </c>
       <c r="C66">
         <f t="shared" ref="C66:C129" si="1">MOD(B66,1.33)</f>
-        <v>1.3299999999998917</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.3299999999998935</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>27.59749999999989</v>
+        <v>26.267499999999892</v>
       </c>
       <c r="C67">
         <f t="shared" si="1"/>
-        <v>0.99749999999988859</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>0.99749999999989036</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>27.264999999999894</v>
+        <v>25.934999999999896</v>
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
-        <v>0.66499999999989257</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>0.66499999999989434</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>26.932499999999891</v>
+        <v>25.602499999999893</v>
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
-        <v>0.33249999999988944</v>
+        <v>0.33249999999989122</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -2571,23 +3248,23 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>26.599999999999895</v>
+        <v>25.269999999999897</v>
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
-        <v>1.3299999999998935</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.3299999999998953</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>25.934999999999896</v>
+        <v>24.604999999999897</v>
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
-        <v>0.66499999999989434</v>
+        <v>0.66499999999989612</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -2595,47 +3272,47 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>25.269999999999897</v>
+        <v>23.939999999999898</v>
       </c>
       <c r="C72">
         <f t="shared" si="1"/>
-        <v>1.3299999999998953</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.329999999999897</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>24.937499999999893</v>
+        <v>23.607499999999895</v>
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
-        <v>0.99749999999989214</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>0.99749999999989392</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>24.60499999999989</v>
+        <v>23.274999999999892</v>
       </c>
       <c r="C74">
         <f t="shared" si="1"/>
-        <v>0.66499999999988901</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>0.66499999999989079</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>24.272499999999894</v>
+        <v>22.942499999999896</v>
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
-        <v>0.33249999999989299</v>
+        <v>0.33249999999989477</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -2643,35 +3320,35 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>23.939999999999891</v>
+        <v>22.609999999999893</v>
       </c>
       <c r="C76">
         <f t="shared" si="1"/>
-        <v>1.3299999999998899</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.3299999999998917</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>23.496666666666592</v>
+        <v>22.166666666666593</v>
       </c>
       <c r="C77">
         <f t="shared" si="1"/>
-        <v>0.88666666666659033</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>0.88666666666659211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>23.053333333333292</v>
+        <v>21.723333333333294</v>
       </c>
       <c r="C78">
         <f t="shared" si="1"/>
-        <v>0.44333333333329072</v>
+        <v>0.4433333333332925</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -2679,35 +3356,35 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>22.609999999999893</v>
+        <v>21.279999999999895</v>
       </c>
       <c r="C79">
         <f t="shared" si="1"/>
-        <v>1.3299999999998917</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.3299999999998935</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>22.166666666666593</v>
+        <v>20.836666666666595</v>
       </c>
       <c r="C80">
         <f t="shared" si="1"/>
-        <v>0.88666666666659211</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>0.88666666666659388</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>21.723333333333294</v>
+        <v>20.393333333333295</v>
       </c>
       <c r="C81">
         <f t="shared" si="1"/>
-        <v>0.4433333333332925</v>
+        <v>0.44333333333329428</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -2715,35 +3392,35 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>21.279999999999895</v>
+        <v>19.949999999999896</v>
       </c>
       <c r="C82">
         <f t="shared" si="1"/>
-        <v>1.3299999999998935</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.3299999999998953</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>20.836666666666595</v>
+        <v>19.506666666666597</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
-        <v>0.88666666666659388</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>0.88666666666659566</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>20.393333333333295</v>
+        <v>19.063333333333297</v>
       </c>
       <c r="C84">
         <f t="shared" si="1"/>
-        <v>0.44333333333329428</v>
+        <v>0.44333333333329605</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -2751,59 +3428,59 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>19.949999999999896</v>
+        <v>18.619999999999898</v>
       </c>
       <c r="C85">
         <f t="shared" si="1"/>
-        <v>1.3299999999998953</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.329999999999897</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>19.683999999999891</v>
+        <v>18.353999999999893</v>
       </c>
       <c r="C86">
         <f t="shared" si="1"/>
-        <v>1.0639999999998899</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.0639999999998917</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>19.417999999999893</v>
+        <v>18.087999999999894</v>
       </c>
       <c r="C87">
         <f t="shared" si="1"/>
-        <v>0.79799999999989168</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>0.79799999999989346</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>19.151999999999894</v>
+        <v>17.821999999999896</v>
       </c>
       <c r="C88">
         <f t="shared" si="1"/>
-        <v>0.53199999999989345</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>0.53199999999989522</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>18.885999999999896</v>
+        <v>17.555999999999898</v>
       </c>
       <c r="C89">
         <f t="shared" si="1"/>
-        <v>0.26599999999989521</v>
+        <v>0.26599999999989699</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -2811,35 +3488,35 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>18.619999999999891</v>
+        <v>17.289999999999893</v>
       </c>
       <c r="C90">
         <f t="shared" si="1"/>
-        <v>1.3299999999998899</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>1.3299999999998917</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>18.176666666666591</v>
+        <v>16.957499999999893</v>
       </c>
       <c r="C91">
         <f t="shared" si="1"/>
-        <v>0.88666666666659033</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>0.99749999999989214</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>17.733333333333292</v>
+        <v>16.624999999999893</v>
       </c>
       <c r="C92">
         <f t="shared" si="1"/>
-        <v>0.44333333333329072</v>
+        <v>0.66499999999989257</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
@@ -2847,11 +3524,11 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>17.289999999999893</v>
+        <v>16.292499999999894</v>
       </c>
       <c r="C93">
         <f t="shared" si="1"/>
-        <v>1.3299999999998917</v>
+        <v>0.33249999999989299</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
@@ -2866,7 +3543,7 @@
         <v>1.3299999999998935</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2878,7 +3555,7 @@
         <v>0.99749999999989036</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2890,7 +3567,7 @@
         <v>0.66499999999989434</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2914,7 +3591,7 @@
         <v>1.3299999999998953</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2926,7 +3603,7 @@
         <v>0.88666666666659566</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2950,7 +3627,7 @@
         <v>1.3299999999998899</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2962,7 +3639,7 @@
         <v>1.0639999999998917</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2974,7 +3651,7 @@
         <v>0.79799999999989346</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2986,7 +3663,7 @@
         <v>0.53199999999989522</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3010,7 +3687,7 @@
         <v>1.3299999999998917</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3022,7 +3699,7 @@
         <v>1.0639999999998935</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3034,7 +3711,7 @@
         <v>0.79799999999989524</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3046,7 +3723,7 @@
         <v>0.53199999999988989</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3070,7 +3747,7 @@
         <v>1.3299999999998935</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3082,7 +3759,7 @@
         <v>0.99749999999989036</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3094,7 +3771,7 @@
         <v>0.66499999999999382</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3118,7 +3795,7 @@
         <v>1.3299999999999947</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3130,7 +3807,7 @@
         <v>1.1083333333332952</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3142,7 +3819,7 @@
         <v>0.88666666666659566</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3154,7 +3831,7 @@
         <v>0.66499999999999559</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3166,7 +3843,7 @@
         <v>0.44333333333329605</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3190,7 +3867,7 @@
         <v>1.3299999999999965</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3202,7 +3879,7 @@
         <v>1.0639999999999912</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3214,7 +3891,7 @@
         <v>0.79799999999989346</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3226,7 +3903,7 @@
         <v>0.5319999999999947</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3250,7 +3927,7 @@
         <v>1.3299999999999912</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3262,7 +3939,7 @@
         <v>1.063999999999993</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3274,7 +3951,7 @@
         <v>0.79799999999999471</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3286,7 +3963,7 @@
         <v>0.53199999999999648</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3310,7 +3987,7 @@
         <v>1.329999999999993</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3322,7 +3999,7 @@
         <v>1.1399999999999952</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3334,7 +4011,7 @@
         <v>0.94999999999999041</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3346,7 +4023,7 @@
         <v>0.75999999999999268</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3358,7 +4035,7 @@
         <v>0.56999999999999496</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3370,7 +4047,7 @@
         <v>0.37999999999999012</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3394,7 +4071,7 @@
         <v>1.3299999999999947</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3406,7 +4083,7 @@
         <v>1.1083333333332952</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3418,7 +4095,7 @@
         <v>0.88666666666659566</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3430,7 +4107,7 @@
         <v>0.66499999999999559</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3442,7 +4119,7 @@
         <v>0.44333333333329605</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3466,7 +4143,7 @@
         <v>1.3299999999999965</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3478,7 +4155,7 @@
         <v>1.2090909090908948</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3490,7 +4167,7 @@
         <v>1.0881818181818002</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3502,7 +4179,7 @@
         <v>0.96727272727269131</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3514,7 +4191,7 @@
         <v>0.84636363636359668</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3526,7 +4203,7 @@
         <v>0.72545454545448784</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3538,7 +4215,7 @@
         <v>0.60454545454539321</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3550,7 +4227,7 @@
         <v>0.48363636363629858</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3562,7 +4239,7 @@
         <v>0.36272727272718974</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3574,7 +4251,7 @@
         <v>0.24181818181809511</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3598,7 +4275,7 @@
         <v>1.3299999999999912</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>155</v>
       </c>
@@ -3610,7 +4287,7 @@
         <v>1.1822222222221868</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>156</v>
       </c>
@@ -3622,7 +4299,7 @@
         <v>1.0344444444443965</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>157</v>
       </c>
@@ -3634,7 +4311,7 @@
         <v>0.88666666666659211</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>158</v>
       </c>
@@ -3646,7 +4323,7 @@
         <v>0.73888888888878768</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>159</v>
       </c>
@@ -3658,7 +4335,7 @@
         <v>0.59111111111109693</v>
       </c>
     </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>160</v>
       </c>
@@ -3670,7 +4347,7 @@
         <v>0.4433333333332925</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>161</v>
       </c>
@@ -3682,7 +4359,7 @@
         <v>0.29555555555548807</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>162</v>
       </c>
@@ -3986,14 +4663,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C195">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="0"/>
-        <filter val="1.33"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C195"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Graphs/ar5の11次から作成したキャリブレーションカーブ.xlsx
+++ b/Graphs/ar5の11次から作成したキャリブレーションカーブ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,9 +104,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.5637791348238775E-2"/>
+          <c:x val="5.4016948330617806E-2"/>
           <c:y val="1.4703995333916593E-2"/>
-          <c:w val="0.91996346496559633"/>
+          <c:w val="0.91158430075765395"/>
           <c:h val="0.86308136482939635"/>
         </c:manualLayout>
       </c:layout>
@@ -143,590 +143,248 @@
               <c:f>Sheet1!$A$1:$A$195</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="195"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>61</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>63</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>64</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>67</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>68</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>71</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>72</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>73</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>74</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>75</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>76</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>77</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>79</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="194">
                   <c:v>194</c:v>
                 </c:pt>
               </c:numCache>
@@ -737,497 +395,155 @@
               <c:f>Sheet1!$B$1:$B$195</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="195"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>65.169999999999888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.504999999999896</c:v>
+                  <c:v>63.839999999999904</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.839999999999904</c:v>
+                  <c:v>62.509999999999899</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.509999999999899</c:v>
+                  <c:v>61.1799999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.844999999999892</c:v>
+                  <c:v>59.849999999999902</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.1799999999999</c:v>
+                  <c:v>58.519999999999889</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.514999999999894</c:v>
+                  <c:v>57.189999999999891</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59.849999999999902</c:v>
+                  <c:v>55.859999999999893</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.517499999999892</c:v>
+                  <c:v>54.529999999999895</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>59.184999999999896</c:v>
+                  <c:v>53.199999999999896</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>58.8524999999999</c:v>
+                  <c:v>51.869999999999898</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>58.519999999999889</c:v>
+                  <c:v>50.539999999999893</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>57.854999999999897</c:v>
+                  <c:v>49.209999999999894</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>57.189999999999891</c:v>
+                  <c:v>47.879999999999896</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>55.859999999999893</c:v>
+                  <c:v>46.549999999999891</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>54.529999999999895</c:v>
+                  <c:v>45.219999999999892</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>54.086666666666595</c:v>
+                  <c:v>43.889999999999894</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>53.643333333333196</c:v>
+                  <c:v>42.559999999999896</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>53.199999999999896</c:v>
+                  <c:v>41.229999999999897</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>52.53499999999989</c:v>
+                  <c:v>39.899999999999899</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>51.869999999999898</c:v>
+                  <c:v>38.569999999999894</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>50.539999999999893</c:v>
+                  <c:v>37.239999999999895</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>49.874999999999893</c:v>
+                  <c:v>35.90999999999989</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49.209999999999894</c:v>
+                  <c:v>34.579999999999892</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>47.879999999999896</c:v>
+                  <c:v>33.249999999999893</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>47.214999999999897</c:v>
+                  <c:v>31.919999999999895</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>46.549999999999891</c:v>
+                  <c:v>30.589999999999897</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45.884999999999899</c:v>
+                  <c:v>29.259999999999899</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45.219999999999892</c:v>
+                  <c:v>27.929999999999893</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44.5549999999999</c:v>
+                  <c:v>26.599999999999895</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43.889999999999894</c:v>
+                  <c:v>25.269999999999897</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43.446666666666594</c:v>
+                  <c:v>23.939999999999898</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43.003333333333195</c:v>
+                  <c:v>22.609999999999893</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42.559999999999896</c:v>
+                  <c:v>21.279999999999895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>42.116666666666596</c:v>
+                  <c:v>19.949999999999896</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41.673333333333197</c:v>
+                  <c:v>18.619999999999898</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41.229999999999897</c:v>
+                  <c:v>17.289999999999893</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>40.564999999999891</c:v>
+                  <c:v>15.959999999999894</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39.899999999999899</c:v>
+                  <c:v>14.629999999999896</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39.456666666666599</c:v>
+                  <c:v>13.299999999999891</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>39.0133333333332</c:v>
+                  <c:v>11.969999999999892</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>38.569999999999894</c:v>
+                  <c:v>10.639999999999894</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>37.904999999999895</c:v>
+                  <c:v>9.3099999999999952</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>37.239999999999895</c:v>
+                  <c:v>7.9799999999999969</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>36.796666666666596</c:v>
+                  <c:v>6.6499999999999915</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>36.353333333333197</c:v>
+                  <c:v>5.3199999999999932</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>35.90999999999989</c:v>
+                  <c:v>3.9899999999999949</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>35.244999999999898</c:v>
+                  <c:v>2.6599999999999966</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>34.579999999999892</c:v>
+                  <c:v>1.3299999999999912</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>34.247499999999896</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>33.9149999999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>33.582499999999897</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>33.249999999999893</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>32.584999999999894</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>31.919999999999895</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>31.476666666666596</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>31.033333333333296</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>30.589999999999897</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>29.924999999999898</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>29.259999999999899</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>28.816666666666592</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>28.373333333333292</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>27.929999999999893</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>27.486666666666594</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>27.043333333333294</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>26.599999999999895</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>26.267499999999892</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>25.934999999999896</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>25.602499999999893</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>25.269999999999897</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>24.604999999999897</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>23.939999999999898</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>23.607499999999895</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>23.274999999999892</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>22.942499999999896</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>22.609999999999893</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>22.166666666666593</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>21.723333333333294</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>21.279999999999895</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>20.836666666666595</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>20.393333333333295</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>19.949999999999896</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>19.506666666666597</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>19.063333333333297</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>18.619999999999898</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>18.353999999999893</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>18.087999999999894</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>17.821999999999896</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>17.555999999999898</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>17.289999999999893</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>16.957499999999893</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>16.624999999999893</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>16.292499999999894</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>15.959999999999894</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>15.627499999999891</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>15.294999999999895</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>14.962499999999892</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>14.629999999999896</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>14.186666666666596</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>13.743333333333297</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>13.299999999999891</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>13.033999999999892</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>12.767999999999894</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>12.501999999999896</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>12.235999999999891</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>11.969999999999892</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>11.703999999999894</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>11.437999999999896</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>11.17199999999989</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>10.905999999999892</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>10.639999999999894</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>10.307499999999891</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>9.9749999999999943</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>9.6424999999998917</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>9.3099999999999952</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>9.0883333333332956</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>8.8666666666665961</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>8.644999999999996</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>8.4233333333332965</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>8.2016666666665969</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>7.9799999999999969</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>7.7139999999999915</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>7.4479999999998938</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>7.1819999999999951</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>6.9159999999999968</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>6.6499999999999915</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>6.3839999999999932</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>6.117999999999995</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>5.8519999999999968</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>5.5859999999999914</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>5.3199999999999932</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>5.1299999999999955</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>4.9399999999999906</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>4.7499999999999929</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>4.5599999999999952</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>4.3699999999999903</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>4.1799999999999926</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>3.9899999999999949</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>3.7683333333332953</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>3.5466666666665958</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>3.3249999999999957</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>3.1033333333332962</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>2.8816666666665967</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>2.6599999999999966</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>2.5390909090908949</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>2.4181818181818002</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>2.2972727272726914</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>2.1763636363635968</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>2.0554545454544879</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>1.9345454545453933</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>1.8136363636362987</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>1.6927272727271898</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>1.5718181818180952</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>1.4509090909089863</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>1.3299999999999912</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>1.1822222222221868</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>1.0344444444443965</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.88666666666659211</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.73888888888878768</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0.59111111111109693</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0.4433333333332925</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0.29555555555548807</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.14777777777769785</c:v>
-                </c:pt>
-                <c:pt idx="163">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1243,11 +559,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1303233048"/>
-        <c:axId val="1303235008"/>
+        <c:axId val="551764696"/>
+        <c:axId val="551768616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1303233048"/>
+        <c:axId val="551764696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -1271,7 +587,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1284,7 +600,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
                   <a:t>データ番号</a:t>
                 </a:r>
               </a:p>
@@ -1304,7 +620,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1342,7 +658,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1357,13 +673,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1303235008"/>
+        <c:crossAx val="551768616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1303235008"/>
+        <c:axId val="551768616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,18 +714,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
                   <a:t>XUV-IR</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
                   <a:t>ディレイ</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
                   <a:t>[fs]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1465,7 +781,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1480,7 +796,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1303233048"/>
+        <c:crossAx val="551764696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2089,16 +1405,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>180973</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2407,10 +1723,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B164" sqref="B34:B164"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2427,7 +1744,7 @@
         <v>1.3299999999998846</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2463,7 +1780,7 @@
         <v>1.3299999999998953</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2487,7 +1804,7 @@
         <v>1.329999999999897</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2511,7 +1828,7 @@
         <v>1.3299999999998988</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2523,7 +1840,7 @@
         <v>0.99749999999988859</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2535,7 +1852,7 @@
         <v>0.66499999999989257</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2559,7 +1876,7 @@
         <v>1.3299999999998864</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2607,7 +1924,7 @@
         <v>1.3299999999998917</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2619,7 +1936,7 @@
         <v>0.88666666666659211</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2643,7 +1960,7 @@
         <v>1.3299999999998935</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2679,7 +1996,7 @@
         <v>1.3299999999998899</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2715,7 +2032,7 @@
         <v>1.3299999999998935</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2739,7 +2056,7 @@
         <v>1.3299999999998882</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2763,7 +2080,7 @@
         <v>1.3299999999998899</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2787,7 +2104,7 @@
         <v>1.3299999999998917</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2799,7 +2116,7 @@
         <v>0.88666666666659211</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2823,7 +2140,7 @@
         <v>1.3299999999998935</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2835,7 +2152,7 @@
         <v>0.88666666666659388</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2859,7 +2176,7 @@
         <v>1.3299999999998953</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2883,7 +2200,7 @@
         <v>1.329999999999897</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2895,7 +2212,7 @@
         <v>0.88666666666659744</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2919,7 +2236,7 @@
         <v>1.3299999999998917</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2943,7 +2260,7 @@
         <v>1.3299999999998935</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2955,7 +2272,7 @@
         <v>0.88666666666659388</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2979,7 +2296,7 @@
         <v>1.3299999999998882</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3003,7 +2320,7 @@
         <v>1.3299999999998899</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3015,7 +2332,7 @@
         <v>0.99749999999989392</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3027,7 +2344,7 @@
         <v>0.6649999999998979</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3051,7 +2368,7 @@
         <v>1.3299999999998917</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3075,7 +2392,7 @@
         <v>1.3299999999998935</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3087,7 +2404,7 @@
         <v>0.88666666666659388</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3111,7 +2428,7 @@
         <v>1.3299999999998953</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3135,7 +2452,7 @@
         <v>1.329999999999897</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3147,7 +2464,7 @@
         <v>0.88666666666659033</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3171,7 +2488,7 @@
         <v>1.3299999999998917</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3183,7 +2500,7 @@
         <v>0.88666666666659211</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3207,7 +2524,7 @@
         <v>1.3299999999998935</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3219,7 +2536,7 @@
         <v>0.99749999999989036</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3231,7 +2548,7 @@
         <v>0.66499999999989434</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3255,7 +2572,7 @@
         <v>1.3299999999998953</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3279,7 +2596,7 @@
         <v>1.329999999999897</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3291,7 +2608,7 @@
         <v>0.99749999999989392</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3303,7 +2620,7 @@
         <v>0.66499999999989079</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3327,7 +2644,7 @@
         <v>1.3299999999998917</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3339,7 +2656,7 @@
         <v>0.88666666666659211</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3363,7 +2680,7 @@
         <v>1.3299999999998935</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3375,7 +2692,7 @@
         <v>0.88666666666659388</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3399,7 +2716,7 @@
         <v>1.3299999999998953</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3411,7 +2728,7 @@
         <v>0.88666666666659566</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3435,7 +2752,7 @@
         <v>1.329999999999897</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3447,7 +2764,7 @@
         <v>1.0639999999998917</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3459,7 +2776,7 @@
         <v>0.79799999999989346</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3471,7 +2788,7 @@
         <v>0.53199999999989522</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3495,7 +2812,7 @@
         <v>1.3299999999998917</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3507,7 +2824,7 @@
         <v>0.99749999999989214</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3519,7 +2836,7 @@
         <v>0.66499999999989257</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3543,7 +2860,7 @@
         <v>1.3299999999998935</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3555,7 +2872,7 @@
         <v>0.99749999999989036</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3567,7 +2884,7 @@
         <v>0.66499999999989434</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3591,7 +2908,7 @@
         <v>1.3299999999998953</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3603,7 +2920,7 @@
         <v>0.88666666666659566</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3627,7 +2944,7 @@
         <v>1.3299999999998899</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3639,7 +2956,7 @@
         <v>1.0639999999998917</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3651,7 +2968,7 @@
         <v>0.79799999999989346</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3663,7 +2980,7 @@
         <v>0.53199999999989522</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3687,7 +3004,7 @@
         <v>1.3299999999998917</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3699,7 +3016,7 @@
         <v>1.0639999999998935</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3711,7 +3028,7 @@
         <v>0.79799999999989524</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3723,7 +3040,7 @@
         <v>0.53199999999988989</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3747,7 +3064,7 @@
         <v>1.3299999999998935</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3759,7 +3076,7 @@
         <v>0.99749999999989036</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3771,7 +3088,7 @@
         <v>0.66499999999999382</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3795,7 +3112,7 @@
         <v>1.3299999999999947</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3807,7 +3124,7 @@
         <v>1.1083333333332952</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3819,7 +3136,7 @@
         <v>0.88666666666659566</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3831,7 +3148,7 @@
         <v>0.66499999999999559</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3843,7 +3160,7 @@
         <v>0.44333333333329605</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3867,7 +3184,7 @@
         <v>1.3299999999999965</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3879,7 +3196,7 @@
         <v>1.0639999999999912</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3891,7 +3208,7 @@
         <v>0.79799999999989346</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3903,7 +3220,7 @@
         <v>0.5319999999999947</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3927,7 +3244,7 @@
         <v>1.3299999999999912</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3939,7 +3256,7 @@
         <v>1.063999999999993</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3951,7 +3268,7 @@
         <v>0.79799999999999471</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3963,7 +3280,7 @@
         <v>0.53199999999999648</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3987,7 +3304,7 @@
         <v>1.329999999999993</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3999,7 +3316,7 @@
         <v>1.1399999999999952</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4011,7 +3328,7 @@
         <v>0.94999999999999041</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4023,7 +3340,7 @@
         <v>0.75999999999999268</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4035,7 +3352,7 @@
         <v>0.56999999999999496</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4047,7 +3364,7 @@
         <v>0.37999999999999012</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4071,7 +3388,7 @@
         <v>1.3299999999999947</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4083,7 +3400,7 @@
         <v>1.1083333333332952</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4095,7 +3412,7 @@
         <v>0.88666666666659566</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4107,7 +3424,7 @@
         <v>0.66499999999999559</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4119,7 +3436,7 @@
         <v>0.44333333333329605</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4143,7 +3460,7 @@
         <v>1.3299999999999965</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4155,7 +3472,7 @@
         <v>1.2090909090908948</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4167,7 +3484,7 @@
         <v>1.0881818181818002</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4179,7 +3496,7 @@
         <v>0.96727272727269131</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4191,7 +3508,7 @@
         <v>0.84636363636359668</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4203,7 +3520,7 @@
         <v>0.72545454545448784</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4215,7 +3532,7 @@
         <v>0.60454545454539321</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4227,7 +3544,7 @@
         <v>0.48363636363629858</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4239,7 +3556,7 @@
         <v>0.36272727272718974</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4251,7 +3568,7 @@
         <v>0.24181818181809511</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4275,7 +3592,7 @@
         <v>1.3299999999999912</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4287,7 +3604,7 @@
         <v>1.1822222222221868</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4299,7 +3616,7 @@
         <v>1.0344444444443965</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4311,7 +3628,7 @@
         <v>0.88666666666659211</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4323,7 +3640,7 @@
         <v>0.73888888888878768</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4335,7 +3652,7 @@
         <v>0.59111111111109693</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4347,7 +3664,7 @@
         <v>0.4433333333332925</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4359,7 +3676,7 @@
         <v>0.29555555555548807</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4663,9 +3980,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C195"/>
+  <autoFilter ref="A1:C195">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="0"/>
+        <filter val="1.33"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Graphs/ar5の11次から作成したキャリブレーションカーブ.xlsx
+++ b/Graphs/ar5の11次から作成したキャリブレーションカーブ.xlsx
@@ -104,10 +104,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.4016948330617806E-2"/>
+          <c:x val="0.15905090995008561"/>
           <c:y val="1.4703995333916593E-2"/>
-          <c:w val="0.91158430075765395"/>
-          <c:h val="0.86308136482939635"/>
+          <c:w val="0.79201989279034812"/>
+          <c:h val="0.73940187084865272"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -559,11 +559,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="551764696"/>
-        <c:axId val="551768616"/>
+        <c:axId val="1699311288"/>
+        <c:axId val="-2106380888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="551764696"/>
+        <c:axId val="1699311288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -673,13 +673,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551768616"/>
+        <c:crossAx val="-2106380888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
+        <c:majorUnit val="20"/>
+        <c:minorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="551768616"/>
+        <c:axId val="-2106380888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -714,18 +715,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
-                  <a:t>XUV-IR</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
-                  <a:t>ディレイ</a:t>
+                  <a:t>時間差</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
                   <a:t>[fs]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -796,7 +792,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551764696"/>
+        <c:crossAx val="1699311288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1405,16 +1401,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>13609</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1726,8 +1722,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V60" sqref="V60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
